--- a/vue/public/static/学生信息导入模板.xlsx
+++ b/vue/public/static/学生信息导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>学号</t>
   </si>
@@ -22,10 +22,22 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>年级</t>
+  </si>
+  <si>
     <t>身份证号</t>
   </si>
   <si>
-    <t>年级</t>
+    <t>9201068*****</t>
+  </si>
+  <si>
+    <t>样例(此行需要删除，年级的数据格式为文本)</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>11111111111111111</t>
   </si>
 </sst>
 </file>
@@ -639,8 +651,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -960,13 +974,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="44.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -975,11 +995,25 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/vue/public/static/学生信息导入模板.xlsx
+++ b/vue/public/static/学生信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>学号</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>身份证号</t>
+  </si>
+  <si>
+    <t>免费次数</t>
   </si>
   <si>
     <t>9201068*****</t>
@@ -974,13 +977,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="44.6666666666667" customWidth="1"/>
@@ -988,7 +991,7 @@
     <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,19 +1004,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
